--- a/SummaryData.xlsx
+++ b/SummaryData.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markkelson/Dropbox (Personal)/CHI/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65458D34-5052-EB4B-BEF7-821B3378AF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D04281-FD31-1144-A175-C4CA7F4DEF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16440" yWindow="480" windowWidth="19020" windowHeight="19100" xr2:uid="{159BF5A4-EADD-A04F-B9A8-280A5A9603BC}"/>
+    <workbookView xWindow="620" yWindow="460" windowWidth="29540" windowHeight="18700" xr2:uid="{159BF5A4-EADD-A04F-B9A8-280A5A9603BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ExtractedinError" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="115">
   <si>
     <t>Author</t>
   </si>
@@ -177,9 +177,6 @@
     <t>Samuels2015</t>
   </si>
   <si>
-    <t>Vet2017</t>
-  </si>
-  <si>
     <t>Lako2018</t>
   </si>
   <si>
@@ -370,6 +367,18 @@
   </si>
   <si>
     <t>CM_Team</t>
+  </si>
+  <si>
+    <t>CM_Caseload_num</t>
+  </si>
+  <si>
+    <t>CM_Frequency_num</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>deVet2017</t>
   </si>
 </sst>
 </file>
@@ -722,18 +731,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6E07AE-BA17-8745-B64D-EF9CC4EDB6B8}">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O52" sqref="O52"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
@@ -743,7 +753,7 @@
     <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -778,22 +788,28 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -831,7 +847,7 @@
         <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N2">
         <v>22.5</v>
@@ -840,10 +856,16 @@
         <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -881,7 +903,7 @@
         <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N3">
         <v>11</v>
@@ -892,8 +914,14 @@
       <c r="P3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <v>11</v>
+      </c>
+      <c r="R3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -916,7 +944,7 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>13</v>
@@ -928,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N4">
         <v>20</v>
@@ -942,8 +970,14 @@
       <c r="P4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="R4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -981,7 +1015,7 @@
         <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N5">
         <v>42</v>
@@ -992,8 +1026,14 @@
       <c r="P5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1031,7 +1071,7 @@
         <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N6">
         <v>42</v>
@@ -1042,10 +1082,16 @@
       <c r="P6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="R6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -1081,7 +1127,7 @@
         <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N7">
         <v>52</v>
@@ -1092,8 +1138,14 @@
       <c r="P7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>15</v>
+      </c>
+      <c r="R7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1131,7 +1183,7 @@
         <v>13</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N8">
         <v>28</v>
@@ -1142,8 +1194,14 @@
       <c r="P8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1178,10 +1236,10 @@
         <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N9">
         <v>20</v>
@@ -1192,8 +1250,14 @@
       <c r="P9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1228,10 +1292,10 @@
         <v>21</v>
       </c>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N10">
         <v>20</v>
@@ -1242,8 +1306,14 @@
       <c r="P10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1278,10 +1348,10 @@
         <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1292,8 +1362,14 @@
       <c r="P11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" t="s">
+        <v>13</v>
+      </c>
+      <c r="R11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1331,7 +1407,7 @@
         <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1342,8 +1418,14 @@
       <c r="P12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" t="s">
+        <v>113</v>
+      </c>
+      <c r="R12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1378,7 +1460,7 @@
         <v>21</v>
       </c>
       <c r="L13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M13" t="s">
         <v>13</v>
@@ -1392,8 +1474,14 @@
       <c r="P13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1442,8 +1530,14 @@
       <c r="P14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" t="s">
+        <v>113</v>
+      </c>
+      <c r="R14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1478,10 +1572,10 @@
         <v>21</v>
       </c>
       <c r="L15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N15">
         <v>29</v>
@@ -1492,8 +1586,14 @@
       <c r="P15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" t="s">
+        <v>113</v>
+      </c>
+      <c r="R15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1531,7 +1631,7 @@
         <v>13</v>
       </c>
       <c r="M16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N16">
         <v>100</v>
@@ -1542,10 +1642,16 @@
       <c r="P16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" t="s">
+        <v>113</v>
+      </c>
+      <c r="R16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -1578,10 +1684,10 @@
         <v>21</v>
       </c>
       <c r="L17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N17">
         <v>46</v>
@@ -1592,10 +1698,16 @@
       <c r="P17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" t="s">
+        <v>113</v>
+      </c>
+      <c r="R17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -1628,10 +1740,10 @@
         <v>21</v>
       </c>
       <c r="L18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N18">
         <v>12</v>
@@ -1642,10 +1754,16 @@
       <c r="P18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" t="s">
+        <v>113</v>
+      </c>
+      <c r="R18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -1678,10 +1796,10 @@
         <v>21</v>
       </c>
       <c r="L19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N19">
         <v>93</v>
@@ -1692,10 +1810,16 @@
       <c r="P19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" t="s">
+        <v>13</v>
+      </c>
+      <c r="R19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
@@ -1728,10 +1852,10 @@
         <v>21</v>
       </c>
       <c r="L20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N20">
         <v>29</v>
@@ -1742,10 +1866,16 @@
       <c r="P20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
@@ -1778,10 +1908,10 @@
         <v>21</v>
       </c>
       <c r="L21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N21">
         <v>29</v>
@@ -1792,13 +1922,19 @@
       <c r="P21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
         <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -1828,10 +1964,10 @@
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N22" t="s">
         <v>13</v>
@@ -1842,13 +1978,19 @@
       <c r="P22" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" t="s">
+        <v>13</v>
+      </c>
+      <c r="R22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -1878,10 +2020,10 @@
         <v>21</v>
       </c>
       <c r="L23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N23">
         <v>31</v>
@@ -1892,10 +2034,16 @@
       <c r="P23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" t="s">
+        <v>13</v>
+      </c>
+      <c r="R23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -1931,7 +2079,7 @@
         <v>13</v>
       </c>
       <c r="M24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N24">
         <v>26</v>
@@ -1940,12 +2088,18 @@
         <v>23</v>
       </c>
       <c r="P24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>13</v>
+      </c>
+      <c r="R24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -1957,7 +2111,7 @@
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
@@ -1981,7 +2135,7 @@
         <v>13</v>
       </c>
       <c r="M25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N25">
         <v>21</v>
@@ -1992,13 +2146,19 @@
       <c r="P25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -2031,7 +2191,7 @@
         <v>13</v>
       </c>
       <c r="M26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N26">
         <v>41</v>
@@ -2040,12 +2200,18 @@
         <v>23</v>
       </c>
       <c r="P26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -2081,7 +2247,7 @@
         <v>13</v>
       </c>
       <c r="M27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N27">
         <v>48</v>
@@ -2090,12 +2256,18 @@
         <v>23</v>
       </c>
       <c r="P27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>113</v>
+      </c>
+      <c r="R27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
@@ -2128,10 +2300,10 @@
         <v>21</v>
       </c>
       <c r="L28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N28">
         <v>19</v>
@@ -2142,13 +2314,19 @@
       <c r="P28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28" t="s">
+        <v>113</v>
+      </c>
+      <c r="R28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
         <v>25</v>
@@ -2181,7 +2359,7 @@
         <v>13</v>
       </c>
       <c r="M29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N29">
         <v>100</v>
@@ -2192,10 +2370,16 @@
       <c r="P29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" t="s">
+        <v>13</v>
+      </c>
+      <c r="R29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -2231,7 +2415,7 @@
         <v>13</v>
       </c>
       <c r="M30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N30">
         <v>35</v>
@@ -2240,12 +2424,18 @@
         <v>13</v>
       </c>
       <c r="P30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>13</v>
+      </c>
+      <c r="R30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -2278,10 +2468,10 @@
         <v>21</v>
       </c>
       <c r="L31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N31">
         <v>16</v>
@@ -2292,13 +2482,19 @@
       <c r="P31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" t="s">
+        <v>13</v>
+      </c>
+      <c r="R31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -2313,7 +2509,7 @@
         <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>20</v>
@@ -2328,10 +2524,10 @@
         <v>21</v>
       </c>
       <c r="L32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N32">
         <v>72</v>
@@ -2340,15 +2536,21 @@
         <v>20</v>
       </c>
       <c r="P32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>113</v>
+      </c>
+      <c r="R32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
@@ -2363,7 +2565,7 @@
         <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>20</v>
@@ -2378,10 +2580,10 @@
         <v>21</v>
       </c>
       <c r="L33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N33">
         <v>72</v>
@@ -2390,12 +2592,18 @@
         <v>20</v>
       </c>
       <c r="P33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>113</v>
+      </c>
+      <c r="R33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
@@ -2428,10 +2636,10 @@
         <v>21</v>
       </c>
       <c r="L34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N34" t="s">
         <v>13</v>
@@ -2442,10 +2650,16 @@
       <c r="P34" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q34" t="s">
+        <v>113</v>
+      </c>
+      <c r="R34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
         <v>31</v>
@@ -2481,7 +2695,7 @@
         <v>13</v>
       </c>
       <c r="M35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -2492,10 +2706,16 @@
       <c r="P35" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q35" t="s">
+        <v>113</v>
+      </c>
+      <c r="R35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
         <v>31</v>
@@ -2528,10 +2748,10 @@
         <v>21</v>
       </c>
       <c r="L36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2542,10 +2762,16 @@
       <c r="P36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q36" t="s">
+        <v>113</v>
+      </c>
+      <c r="R36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
         <v>31</v>
@@ -2569,7 +2795,7 @@
         <v>13</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J37" t="s">
         <v>13</v>
@@ -2581,7 +2807,7 @@
         <v>13</v>
       </c>
       <c r="M37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N37">
         <v>24</v>
@@ -2592,10 +2818,16 @@
       <c r="P37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q37" t="s">
+        <v>113</v>
+      </c>
+      <c r="R37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
         <v>31</v>
@@ -2631,7 +2863,7 @@
         <v>13</v>
       </c>
       <c r="M38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N38">
         <v>100</v>
@@ -2642,10 +2874,16 @@
       <c r="P38" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q38" t="s">
+        <v>13</v>
+      </c>
+      <c r="R38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
         <v>31</v>
@@ -2681,7 +2919,7 @@
         <v>13</v>
       </c>
       <c r="M39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N39">
         <v>33</v>
@@ -2692,10 +2930,16 @@
       <c r="P39" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q39" t="s">
+        <v>113</v>
+      </c>
+      <c r="R39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
@@ -2731,7 +2975,7 @@
         <v>13</v>
       </c>
       <c r="M40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N40">
         <v>25</v>
@@ -2740,15 +2984,21 @@
         <v>23</v>
       </c>
       <c r="P40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>13</v>
+      </c>
+      <c r="R40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -2781,7 +3031,7 @@
         <v>13</v>
       </c>
       <c r="M41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N41">
         <v>15</v>
@@ -2792,10 +3042,16 @@
       <c r="P41" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q41" t="s">
+        <v>13</v>
+      </c>
+      <c r="R41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -2831,7 +3087,7 @@
         <v>13</v>
       </c>
       <c r="M42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N42">
         <v>14</v>
@@ -2840,12 +3096,18 @@
         <v>20</v>
       </c>
       <c r="P42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>13</v>
+      </c>
+      <c r="R42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
@@ -2881,7 +3143,7 @@
         <v>13</v>
       </c>
       <c r="M43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N43">
         <v>42</v>
@@ -2892,13 +3154,19 @@
       <c r="P43" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q43" t="s">
+        <v>113</v>
+      </c>
+      <c r="R43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -2942,19 +3210,25 @@
       <c r="P44" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q44" t="s">
+        <v>13</v>
+      </c>
+      <c r="R44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
         <v>88</v>
-      </c>
-      <c r="B45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" t="s">
-        <v>89</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
@@ -2992,10 +3266,16 @@
       <c r="P45" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q45" t="s">
+        <v>13</v>
+      </c>
+      <c r="R45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -3031,7 +3311,7 @@
         <v>13</v>
       </c>
       <c r="M46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N46">
         <v>32</v>
@@ -3040,12 +3320,18 @@
         <v>23</v>
       </c>
       <c r="P46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>13</v>
+      </c>
+      <c r="R46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
         <v>31</v>
@@ -3078,10 +3364,10 @@
         <v>21</v>
       </c>
       <c r="L47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N47" t="s">
         <v>13</v>
@@ -3090,12 +3376,18 @@
         <v>23</v>
       </c>
       <c r="P47" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>13</v>
+      </c>
+      <c r="R47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -3128,10 +3420,10 @@
         <v>21</v>
       </c>
       <c r="L48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N48">
         <v>23</v>
@@ -3142,10 +3434,16 @@
       <c r="P48" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q48" t="s">
+        <v>113</v>
+      </c>
+      <c r="R48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
@@ -3178,10 +3476,10 @@
         <v>21</v>
       </c>
       <c r="L49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N49">
         <v>18</v>
@@ -3192,13 +3490,19 @@
       <c r="P49" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q49" t="s">
+        <v>113</v>
+      </c>
+      <c r="R49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -3228,10 +3532,10 @@
         <v>21</v>
       </c>
       <c r="L50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N50">
         <v>100</v>
@@ -3242,10 +3546,16 @@
       <c r="P50" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q50" t="s">
+        <v>113</v>
+      </c>
+      <c r="R50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
@@ -3281,7 +3591,7 @@
         <v>13</v>
       </c>
       <c r="M51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N51">
         <v>6</v>
@@ -3290,12 +3600,18 @@
         <v>20</v>
       </c>
       <c r="P51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>13</v>
+      </c>
+      <c r="R51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
         <v>31</v>
@@ -3331,7 +3647,7 @@
         <v>13</v>
       </c>
       <c r="M52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N52">
         <v>42</v>
@@ -3342,13 +3658,19 @@
       <c r="P52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q52" t="s">
+        <v>13</v>
+      </c>
+      <c r="R52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
@@ -3378,10 +3700,10 @@
         <v>21</v>
       </c>
       <c r="L53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N53">
         <v>22</v>
@@ -3392,10 +3714,16 @@
       <c r="P53" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q53" t="s">
+        <v>13</v>
+      </c>
+      <c r="R53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B54" t="s">
         <v>31</v>
@@ -3413,7 +3741,7 @@
         <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H54" t="s">
         <v>27</v>
@@ -3428,10 +3756,10 @@
         <v>21</v>
       </c>
       <c r="L54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N54">
         <v>100</v>
@@ -3440,15 +3768,21 @@
         <v>20</v>
       </c>
       <c r="P54" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>113</v>
+      </c>
+      <c r="R54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
@@ -3481,7 +3815,7 @@
         <v>13</v>
       </c>
       <c r="M55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N55">
         <v>100</v>
@@ -3490,18 +3824,24 @@
         <v>20</v>
       </c>
       <c r="P55" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>13</v>
+      </c>
+      <c r="R55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -3528,30 +3868,36 @@
         <v>21</v>
       </c>
       <c r="L56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N56">
         <v>33</v>
       </c>
       <c r="O56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P56" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q56" t="s">
+        <v>113</v>
+      </c>
+      <c r="R56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -3578,30 +3924,36 @@
         <v>21</v>
       </c>
       <c r="L57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N57">
         <v>33</v>
       </c>
       <c r="O57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P57" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q57" t="s">
+        <v>113</v>
+      </c>
+      <c r="R57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -3628,30 +3980,36 @@
         <v>21</v>
       </c>
       <c r="L58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N58">
         <v>33</v>
       </c>
       <c r="O58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P58" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q58" t="s">
+        <v>113</v>
+      </c>
+      <c r="R58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -3678,24 +4036,30 @@
         <v>21</v>
       </c>
       <c r="L59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N59">
         <v>33</v>
       </c>
       <c r="O59" t="s">
+        <v>105</v>
+      </c>
+      <c r="P59" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>113</v>
+      </c>
+      <c r="R59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>106</v>
-      </c>
-      <c r="P59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>107</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
@@ -3728,10 +4092,10 @@
         <v>21</v>
       </c>
       <c r="L60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N60">
         <v>5</v>
@@ -3742,10 +4106,16 @@
       <c r="P60" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q60" t="s">
+        <v>113</v>
+      </c>
+      <c r="R60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
@@ -3778,10 +4148,10 @@
         <v>21</v>
       </c>
       <c r="L61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N61">
         <v>5</v>
@@ -3791,6 +4161,12 @@
       </c>
       <c r="P61" t="s">
         <v>12</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>113</v>
+      </c>
+      <c r="R61" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3843,10 +4219,10 @@
         <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N1">
         <v>33</v>
